--- a/01_Raw_data/stream slopes.xlsx
+++ b/01_Raw_data/stream slopes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DDE6E5-9DCE-482D-B281-CF1242B47C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836C6354-E7F0-42BB-A433-7079BA32DB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="10065" xr2:uid="{B0316C70-1A91-4503-8B34-202AE1CBC864}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{B0316C70-1A91-4503-8B34-202AE1CBC864}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>up</t>
   </si>
@@ -111,6 +112,24 @@
   </si>
   <si>
     <t>2.18m</t>
+  </si>
+  <si>
+    <t>difference_elevation</t>
+  </si>
+  <si>
+    <t>distance_m</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>mean_error</t>
+  </si>
+  <si>
+    <t>Vertical_error_m</t>
+  </si>
+  <si>
+    <t>slope_RTK</t>
   </si>
 </sst>
 </file>
@@ -483,19 +502,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220E0BDD-D336-4913-9573-1FDFB525270F}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="D8:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="4" max="5" width="11.6796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -520,8 +540,11 @@
       <c r="H1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>0.39374999999999999</v>
       </c>
@@ -546,8 +569,11 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I2">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>0.40833333333333333</v>
       </c>
@@ -572,8 +598,11 @@
       <c r="H3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>0.48125000000000001</v>
       </c>
@@ -598,8 +627,11 @@
       <c r="H4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I4">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>0.4777777777777778</v>
       </c>
@@ -624,8 +656,11 @@
       <c r="H5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I5">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>0.44861111111111113</v>
       </c>
@@ -650,8 +685,11 @@
       <c r="H6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I6">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>0.44374999999999998</v>
       </c>
@@ -676,8 +714,11 @@
       <c r="H7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I7">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>5.0694444444444445E-2</v>
       </c>
@@ -702,8 +743,11 @@
       <c r="H8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I8">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>5.347222222222222E-2</v>
       </c>
@@ -728,8 +772,11 @@
       <c r="H9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I9">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>0.5229166666666667</v>
       </c>
@@ -754,8 +801,11 @@
       <c r="H10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I10">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>0.52430555555555558</v>
       </c>
@@ -780,8 +830,11 @@
       <c r="H11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I11">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>9.0277777777777776E-2</v>
       </c>
@@ -806,8 +859,11 @@
       <c r="H12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I12">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>8.819444444444445E-2</v>
       </c>
@@ -832,8 +888,11 @@
       <c r="H13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A14" s="1">
         <v>0.12152777777777778</v>
       </c>
@@ -858,8 +917,11 @@
       <c r="H14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="I14">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>0.125</v>
       </c>
@@ -883,6 +945,195 @@
       </c>
       <c r="H15" t="s">
         <v>22</v>
+      </c>
+      <c r="I15">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E30A142-1633-4741-9884-1E0BFDD5A236}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="A4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="3" max="3" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>129.08000000000001</v>
+      </c>
+      <c r="C2">
+        <f>Sheet1!F14-Sheet1!F15</f>
+        <v>3.5399999999999991</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(Sheet1!I14:I15)</f>
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="E2">
+        <f>C2/B2</f>
+        <v>2.742485280446234E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>68.69</v>
+      </c>
+      <c r="C3">
+        <f>Sheet1!F3-Sheet1!F2</f>
+        <v>5.9620000000000033</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(Sheet1!I2:I3)</f>
+        <v>0.47450000000000003</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="0">C3/B3</f>
+        <v>8.6795749017324259E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>45.21</v>
+      </c>
+      <c r="C4">
+        <f>Sheet1!F5-Sheet1!F4</f>
+        <v>12.216000000000001</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(Sheet1!I4:I5)</f>
+        <v>2.11</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.27020570670205707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>67.73</v>
+      </c>
+      <c r="C5">
+        <f>Sheet1!F7-Sheet1!F6</f>
+        <v>5.1430000000000007</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(Sheet1!I6:I7)</f>
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>7.5933855012549831E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>59.95</v>
+      </c>
+      <c r="C6">
+        <f>Sheet1!F8-Sheet1!F9</f>
+        <v>0.6390000000000029</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(Sheet1!I8:I9)</f>
+        <v>1.1145</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.0658882402001716E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>51.1</v>
+      </c>
+      <c r="C7">
+        <f>Sheet1!F10-Sheet1!F11</f>
+        <v>0.44500000000000028</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(Sheet1!I10:I11)</f>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>8.7084148727984406E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>144.53</v>
+      </c>
+      <c r="C8">
+        <f>Sheet1!F12-Sheet1!F13</f>
+        <v>0.12599999999999767</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(Sheet1!I12:I13)</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8.7179132360062038E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/01_Raw_data/stream slopes.xlsx
+++ b/01_Raw_data/stream slopes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DDE6E5-9DCE-482D-B281-CF1242B47C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF907974-5C42-4881-AF78-43C82274F6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="10065" xr2:uid="{B0316C70-1A91-4503-8B34-202AE1CBC864}"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19185" windowHeight="10065" activeTab="1" xr2:uid="{B0316C70-1A91-4503-8B34-202AE1CBC864}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>up</t>
   </si>
@@ -111,6 +112,21 @@
   </si>
   <si>
     <t>2.18m</t>
+  </si>
+  <si>
+    <t>distance_m</t>
+  </si>
+  <si>
+    <t>difference_elevation</t>
+  </si>
+  <si>
+    <t>mean_error</t>
+  </si>
+  <si>
+    <t>slope_RTK</t>
+  </si>
+  <si>
+    <t>6a</t>
   </si>
 </sst>
 </file>
@@ -146,9 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,13 +502,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220E0BDD-D336-4913-9573-1FDFB525270F}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="4" max="5" width="11.6796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.2265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -888,4 +906,173 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7326EEA6-98D1-4DE2-AFC8-D17447EC27A5}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A2" s="2">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>129.08000000000001</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.5399999999999991</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.742485280446234E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>68.69</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.9620000000000033</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.47450000000000003</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8.6795749017324259E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45.21</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12.216000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.27020570670205707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" s="2">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>67.73</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.1430000000000007</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7.5933855012549831E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>59.95</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.6390000000000029</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.1145</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.0658882402001716E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>51.1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.44500000000000028</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8.7084148727984406E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>144.53</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.12599999999999767</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8.7179132360062038E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9" s="2">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>